--- a/pkg/Result/slimMapperResult-YeastComponent.xlsx
+++ b/pkg/Result/slimMapperResult-YeastComponent.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="slimMapperResult-YeastComponent" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>GOID</t>
   </si>
@@ -283,16 +284,35 @@
   </si>
   <si>
     <t>GSH2</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,13 +335,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,16 +675,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1">
+    <row r="1" spans="1:6" ht="28" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,10 +701,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>5737</v>
       </c>
@@ -690,11 +720,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>5634</v>
       </c>
@@ -707,11 +737,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>16020</v>
       </c>
@@ -724,11 +754,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>5739</v>
       </c>
@@ -741,11 +771,11 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>12505</v>
       </c>
@@ -758,11 +788,11 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5783</v>
       </c>
@@ -775,11 +805,11 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5740</v>
       </c>
@@ -792,11 +822,11 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5730</v>
       </c>
@@ -809,11 +839,11 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>16023</v>
       </c>
@@ -826,11 +856,11 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>5794</v>
       </c>
@@ -843,11 +873,11 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>5886</v>
       </c>
@@ -860,11 +890,11 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>5694</v>
       </c>
@@ -877,11 +907,11 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>5840</v>
       </c>
@@ -894,11 +924,11 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>30427</v>
       </c>
@@ -911,11 +941,11 @@
       <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>5575</v>
       </c>
@@ -928,11 +958,11 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>5773</v>
       </c>
@@ -945,11 +975,11 @@
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>5938</v>
       </c>
@@ -962,11 +992,11 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>5933</v>
       </c>
@@ -979,11 +1009,11 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>5777</v>
       </c>
@@ -996,11 +1026,11 @@
       <c r="D20" t="s">
         <v>73</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>5618</v>
       </c>
@@ -1013,11 +1043,406 @@
       <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>5737</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>5634</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>16020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>5739</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>12505</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5783</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>5740</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5730</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>16023</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>5794</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>5886</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>5694</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>5840</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>30427</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>5575</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>5773</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>5938</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>5933</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>5777</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>5618</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>5815</v>
       </c>
@@ -1030,11 +1455,11 @@
       <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>5856</v>
       </c>
@@ -1047,11 +1472,11 @@
       <c r="D23" t="s">
         <v>83</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>5576</v>
       </c>
@@ -1064,11 +1489,11 @@
       <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -1078,7 +1503,7 @@
       <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>87</v>
       </c>
     </row>
